--- a/exported_dfs/110550 United States_combined.xlsx
+++ b/exported_dfs/110550 United States_combined.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ae3fc46a81f6f95/Desktop/Auto-Parameters-Tuning/exported_dfs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F5CF04385DB19205AEFF31D2F87AC3C15159A91E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F0551C-A8F0-405A-84F5-D05DE8009FC0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -31,13 +37,7 @@
     <t>Act Orders Final Rev</t>
   </si>
   <si>
-    <t>Fcst Stat Prelim Rev_Kind_1</t>
-  </si>
-  <si>
-    <t>Fcst Stat Prelim Rev_Kind_2</t>
-  </si>
-  <si>
-    <t>Fcst Stat Prelim Rev_Kind_800</t>
+    <t>Fcst Stat Prelim Rev_permutation_1</t>
   </si>
   <si>
     <t>End of History</t>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +126,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -204,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -238,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,14 +423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,22 +460,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>44501</v>
@@ -469,15 +478,15 @@
         <v>8220</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>44531</v>
@@ -488,22 +497,16 @@
       <c r="F3">
         <v>5295</v>
       </c>
-      <c r="G3">
-        <v>5295</v>
-      </c>
-      <c r="H3">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>44562</v>
@@ -514,22 +517,16 @@
       <c r="F4">
         <v>5295</v>
       </c>
-      <c r="G4">
-        <v>5295</v>
-      </c>
-      <c r="H4">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>44593</v>
@@ -540,22 +537,16 @@
       <c r="F5">
         <v>5295</v>
       </c>
-      <c r="G5">
-        <v>5295</v>
-      </c>
-      <c r="H5">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>44621</v>
@@ -566,22 +557,16 @@
       <c r="F6">
         <v>5295</v>
       </c>
-      <c r="G6">
-        <v>5295</v>
-      </c>
-      <c r="H6">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>44652</v>
@@ -592,22 +577,16 @@
       <c r="F7">
         <v>5295</v>
       </c>
-      <c r="G7">
-        <v>5295</v>
-      </c>
-      <c r="H7">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>44682</v>
@@ -618,22 +597,16 @@
       <c r="F8">
         <v>5295</v>
       </c>
-      <c r="G8">
-        <v>5295</v>
-      </c>
-      <c r="H8">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>44713</v>
@@ -644,22 +617,16 @@
       <c r="F9">
         <v>5295</v>
       </c>
-      <c r="G9">
-        <v>5295</v>
-      </c>
-      <c r="H9">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>44743</v>
@@ -670,22 +637,16 @@
       <c r="F10">
         <v>5295</v>
       </c>
-      <c r="G10">
-        <v>5295</v>
-      </c>
-      <c r="H10">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>44774</v>
@@ -696,22 +657,16 @@
       <c r="F11">
         <v>5295</v>
       </c>
-      <c r="G11">
-        <v>5295</v>
-      </c>
-      <c r="H11">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>44805</v>
@@ -722,22 +677,16 @@
       <c r="F12">
         <v>5295</v>
       </c>
-      <c r="G12">
-        <v>5295</v>
-      </c>
-      <c r="H12">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>44835</v>
@@ -748,22 +697,16 @@
       <c r="F13">
         <v>5295</v>
       </c>
-      <c r="G13">
-        <v>5295</v>
-      </c>
-      <c r="H13">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>44866</v>
@@ -774,22 +717,16 @@
       <c r="F14">
         <v>5563</v>
       </c>
-      <c r="G14">
-        <v>5563</v>
-      </c>
-      <c r="H14">
-        <v>5563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>44896</v>
@@ -800,22 +737,16 @@
       <c r="F15">
         <v>5828</v>
       </c>
-      <c r="G15">
-        <v>5828</v>
-      </c>
-      <c r="H15">
-        <v>5828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>44927</v>
@@ -826,22 +757,16 @@
       <c r="F16">
         <v>6090</v>
       </c>
-      <c r="G16">
-        <v>6090</v>
-      </c>
-      <c r="H16">
-        <v>6090</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>44958</v>
@@ -852,22 +777,16 @@
       <c r="F17">
         <v>6349</v>
       </c>
-      <c r="G17">
-        <v>6349</v>
-      </c>
-      <c r="H17">
-        <v>6349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>44986</v>
@@ -878,22 +797,16 @@
       <c r="F18">
         <v>6605</v>
       </c>
-      <c r="G18">
-        <v>6605</v>
-      </c>
-      <c r="H18">
-        <v>6605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>45017</v>
@@ -904,22 +817,16 @@
       <c r="F19">
         <v>6858</v>
       </c>
-      <c r="G19">
-        <v>6858</v>
-      </c>
-      <c r="H19">
-        <v>6858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>45047</v>
@@ -930,22 +837,16 @@
       <c r="F20">
         <v>7108</v>
       </c>
-      <c r="G20">
-        <v>7108</v>
-      </c>
-      <c r="H20">
-        <v>7108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>45078</v>
@@ -956,22 +857,16 @@
       <c r="F21">
         <v>7355</v>
       </c>
-      <c r="G21">
-        <v>7355</v>
-      </c>
-      <c r="H21">
-        <v>7355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>45108</v>
@@ -982,22 +877,16 @@
       <c r="F22">
         <v>7598</v>
       </c>
-      <c r="G22">
-        <v>7598</v>
-      </c>
-      <c r="H22">
-        <v>7598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>45139</v>
@@ -1008,22 +897,16 @@
       <c r="F23">
         <v>7839</v>
       </c>
-      <c r="G23">
-        <v>7839</v>
-      </c>
-      <c r="H23">
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>45170</v>
@@ -1034,22 +917,16 @@
       <c r="F24">
         <v>8077</v>
       </c>
-      <c r="G24">
-        <v>8077</v>
-      </c>
-      <c r="H24">
-        <v>8077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>45200</v>
@@ -1060,22 +937,16 @@
       <c r="F25">
         <v>8311</v>
       </c>
-      <c r="G25">
-        <v>8311</v>
-      </c>
-      <c r="H25">
-        <v>8311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>45231</v>
@@ -1086,22 +957,16 @@
       <c r="F26">
         <v>8543</v>
       </c>
-      <c r="G26">
-        <v>8543</v>
-      </c>
-      <c r="H26">
-        <v>8543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>45261</v>
@@ -1112,22 +977,16 @@
       <c r="F27">
         <v>8771</v>
       </c>
-      <c r="G27">
-        <v>8771</v>
-      </c>
-      <c r="H27">
-        <v>8771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>45292</v>
@@ -1138,22 +997,16 @@
       <c r="F28">
         <v>8997</v>
       </c>
-      <c r="G28">
-        <v>8997</v>
-      </c>
-      <c r="H28">
-        <v>8997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
         <v>45323</v>
@@ -1164,22 +1017,16 @@
       <c r="F29">
         <v>9219</v>
       </c>
-      <c r="G29">
-        <v>9219</v>
-      </c>
-      <c r="H29">
-        <v>9219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
         <v>45352</v>
@@ -1190,22 +1037,16 @@
       <c r="F30">
         <v>9439</v>
       </c>
-      <c r="G30">
-        <v>9439</v>
-      </c>
-      <c r="H30">
-        <v>9439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
         <v>45383</v>
@@ -1216,22 +1057,16 @@
       <c r="F31">
         <v>9655</v>
       </c>
-      <c r="G31">
-        <v>9655</v>
-      </c>
-      <c r="H31">
-        <v>9655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
         <v>45413</v>
@@ -1242,22 +1077,16 @@
       <c r="F32">
         <v>9869</v>
       </c>
-      <c r="G32">
-        <v>9869</v>
-      </c>
-      <c r="H32">
-        <v>9869</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>45444</v>
@@ -1268,22 +1097,16 @@
       <c r="F33">
         <v>10079</v>
       </c>
-      <c r="G33">
-        <v>10079</v>
-      </c>
-      <c r="H33">
-        <v>10079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2">
         <v>45474</v>
@@ -1294,25 +1117,19 @@
       <c r="F34">
         <v>10286</v>
       </c>
-      <c r="G34">
-        <v>10286</v>
-      </c>
       <c r="H34">
-        <v>10286</v>
-      </c>
-      <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
         <v>45505</v>
@@ -1323,22 +1140,16 @@
       <c r="F35">
         <v>10491</v>
       </c>
-      <c r="G35">
-        <v>10491</v>
-      </c>
-      <c r="H35">
-        <v>10491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
         <v>45536</v>
@@ -1349,25 +1160,19 @@
       <c r="F36">
         <v>10693</v>
       </c>
-      <c r="G36">
-        <v>10693</v>
-      </c>
       <c r="H36">
-        <v>10693</v>
-      </c>
-      <c r="J36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
         <v>45566</v>
@@ -1378,22 +1183,16 @@
       <c r="F37">
         <v>10891</v>
       </c>
-      <c r="G37">
-        <v>10891</v>
-      </c>
-      <c r="H37">
-        <v>10891</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
         <v>45597</v>
@@ -1405,24 +1204,18 @@
         <v>11087</v>
       </c>
       <c r="G38">
-        <v>11087</v>
-      </c>
-      <c r="H38">
-        <v>11087</v>
-      </c>
-      <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2">
         <v>45627</v>
@@ -1430,22 +1223,16 @@
       <c r="F39">
         <v>11280</v>
       </c>
-      <c r="G39">
-        <v>11280</v>
-      </c>
-      <c r="H39">
-        <v>11280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2">
         <v>45658</v>
@@ -1453,22 +1240,16 @@
       <c r="F40">
         <v>11470</v>
       </c>
-      <c r="G40">
-        <v>11470</v>
-      </c>
-      <c r="H40">
-        <v>11470</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
         <v>45689</v>
@@ -1476,22 +1257,16 @@
       <c r="F41">
         <v>11657</v>
       </c>
-      <c r="G41">
-        <v>11657</v>
-      </c>
-      <c r="H41">
-        <v>11657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>45717</v>
@@ -1499,22 +1274,16 @@
       <c r="F42">
         <v>11841</v>
       </c>
-      <c r="G42">
-        <v>11841</v>
-      </c>
-      <c r="H42">
-        <v>11841</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2">
         <v>45748</v>
@@ -1522,22 +1291,16 @@
       <c r="F43">
         <v>12023</v>
       </c>
-      <c r="G43">
-        <v>12023</v>
-      </c>
-      <c r="H43">
-        <v>12023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
         <v>45778</v>
@@ -1545,22 +1308,16 @@
       <c r="F44">
         <v>12201</v>
       </c>
-      <c r="G44">
-        <v>12201</v>
-      </c>
-      <c r="H44">
-        <v>12201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2">
         <v>45809</v>
@@ -1568,22 +1325,16 @@
       <c r="F45">
         <v>12377</v>
       </c>
-      <c r="G45">
-        <v>12377</v>
-      </c>
-      <c r="H45">
-        <v>12377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
         <v>45839</v>
@@ -1591,22 +1342,16 @@
       <c r="F46">
         <v>12551</v>
       </c>
-      <c r="G46">
-        <v>12551</v>
-      </c>
-      <c r="H46">
-        <v>12551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
         <v>45870</v>
@@ -1614,22 +1359,16 @@
       <c r="F47">
         <v>12721</v>
       </c>
-      <c r="G47">
-        <v>12721</v>
-      </c>
-      <c r="H47">
-        <v>12721</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>45901</v>
@@ -1637,22 +1376,16 @@
       <c r="F48">
         <v>12889</v>
       </c>
-      <c r="G48">
-        <v>12889</v>
-      </c>
-      <c r="H48">
-        <v>12889</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>45931</v>
@@ -1660,22 +1393,16 @@
       <c r="F49">
         <v>13054</v>
       </c>
-      <c r="G49">
-        <v>13054</v>
-      </c>
-      <c r="H49">
-        <v>13054</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
         <v>45962</v>
@@ -1683,22 +1410,16 @@
       <c r="F50">
         <v>13217</v>
       </c>
-      <c r="G50">
-        <v>13217</v>
-      </c>
-      <c r="H50">
-        <v>13217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2">
         <v>45992</v>
@@ -1706,22 +1427,16 @@
       <c r="F51">
         <v>13377</v>
       </c>
-      <c r="G51">
-        <v>13377</v>
-      </c>
-      <c r="H51">
-        <v>13377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
         <v>46023</v>
@@ -1729,22 +1444,16 @@
       <c r="F52">
         <v>13534</v>
       </c>
-      <c r="G52">
-        <v>13534</v>
-      </c>
-      <c r="H52">
-        <v>13534</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
         <v>46054</v>
@@ -1752,22 +1461,16 @@
       <c r="F53">
         <v>13689</v>
       </c>
-      <c r="G53">
-        <v>13689</v>
-      </c>
-      <c r="H53">
-        <v>13689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2">
         <v>46082</v>
@@ -1775,22 +1478,16 @@
       <c r="F54">
         <v>13841</v>
       </c>
-      <c r="G54">
-        <v>13841</v>
-      </c>
-      <c r="H54">
-        <v>13841</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2">
         <v>46113</v>
@@ -1798,22 +1495,16 @@
       <c r="F55">
         <v>13990</v>
       </c>
-      <c r="G55">
-        <v>13990</v>
-      </c>
-      <c r="H55">
-        <v>13990</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2">
         <v>46143</v>
@@ -1821,22 +1512,16 @@
       <c r="F56">
         <v>14138</v>
       </c>
-      <c r="G56">
-        <v>14138</v>
-      </c>
-      <c r="H56">
-        <v>14138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
         <v>46174</v>
@@ -1844,22 +1529,16 @@
       <c r="F57">
         <v>14282</v>
       </c>
-      <c r="G57">
-        <v>14282</v>
-      </c>
-      <c r="H57">
-        <v>14282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>46204</v>
@@ -1867,22 +1546,16 @@
       <c r="F58">
         <v>14425</v>
       </c>
-      <c r="G58">
-        <v>14425</v>
-      </c>
-      <c r="H58">
-        <v>14425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
         <v>46235</v>
@@ -1890,22 +1563,16 @@
       <c r="F59">
         <v>14565</v>
       </c>
-      <c r="G59">
-        <v>14565</v>
-      </c>
-      <c r="H59">
-        <v>14565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
         <v>46266</v>
@@ -1913,22 +1580,16 @@
       <c r="F60">
         <v>14702</v>
       </c>
-      <c r="G60">
-        <v>14702</v>
-      </c>
-      <c r="H60">
-        <v>14702</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
         <v>46296</v>
@@ -1936,22 +1597,16 @@
       <c r="F61">
         <v>14837</v>
       </c>
-      <c r="G61">
-        <v>14837</v>
-      </c>
-      <c r="H61">
-        <v>14837</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
         <v>46327</v>
@@ -1959,22 +1614,16 @@
       <c r="F62">
         <v>14970</v>
       </c>
-      <c r="G62">
-        <v>14970</v>
-      </c>
-      <c r="H62">
-        <v>14970</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
         <v>46357</v>
@@ -1982,22 +1631,16 @@
       <c r="F63">
         <v>15101</v>
       </c>
-      <c r="G63">
-        <v>15101</v>
-      </c>
-      <c r="H63">
-        <v>15101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>46388</v>
@@ -2005,22 +1648,16 @@
       <c r="F64">
         <v>15229</v>
       </c>
-      <c r="G64">
-        <v>15229</v>
-      </c>
-      <c r="H64">
-        <v>15229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
         <v>46419</v>
@@ -2028,22 +1665,16 @@
       <c r="F65">
         <v>15355</v>
       </c>
-      <c r="G65">
-        <v>15355</v>
-      </c>
-      <c r="H65">
-        <v>15355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2">
         <v>46447</v>
@@ -2051,22 +1682,16 @@
       <c r="F66">
         <v>15479</v>
       </c>
-      <c r="G66">
-        <v>15479</v>
-      </c>
-      <c r="H66">
-        <v>15479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2">
         <v>46478</v>
@@ -2074,22 +1699,16 @@
       <c r="F67">
         <v>15601</v>
       </c>
-      <c r="G67">
-        <v>15601</v>
-      </c>
-      <c r="H67">
-        <v>15601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2">
         <v>46508</v>
@@ -2097,22 +1716,16 @@
       <c r="F68">
         <v>15720</v>
       </c>
-      <c r="G68">
-        <v>15720</v>
-      </c>
-      <c r="H68">
-        <v>15720</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
         <v>46539</v>
@@ -2120,22 +1733,16 @@
       <c r="F69">
         <v>15838</v>
       </c>
-      <c r="G69">
-        <v>15838</v>
-      </c>
-      <c r="H69">
-        <v>15838</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>46569</v>
@@ -2143,22 +1750,16 @@
       <c r="F70">
         <v>15953</v>
       </c>
-      <c r="G70">
-        <v>15953</v>
-      </c>
-      <c r="H70">
-        <v>15953</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2">
         <v>46600</v>
@@ -2166,22 +1767,16 @@
       <c r="F71">
         <v>16067</v>
       </c>
-      <c r="G71">
-        <v>16067</v>
-      </c>
-      <c r="H71">
-        <v>16067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2">
         <v>46631</v>
@@ -2189,22 +1784,16 @@
       <c r="F72">
         <v>16178</v>
       </c>
-      <c r="G72">
-        <v>16178</v>
-      </c>
-      <c r="H72">
-        <v>16178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
         <v>46661</v>
@@ -2212,22 +1801,16 @@
       <c r="F73">
         <v>16287</v>
       </c>
-      <c r="G73">
-        <v>16287</v>
-      </c>
-      <c r="H73">
-        <v>16287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2">
         <v>46692</v>
@@ -2235,22 +1818,16 @@
       <c r="F74">
         <v>16394</v>
       </c>
-      <c r="G74">
-        <v>16394</v>
-      </c>
-      <c r="H74">
-        <v>16394</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
         <v>46722</v>
@@ -2258,33 +1835,21 @@
       <c r="F75">
         <v>5295</v>
       </c>
-      <c r="G75">
-        <v>5295</v>
-      </c>
-      <c r="H75">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2">
         <v>46753</v>
       </c>
       <c r="F76">
-        <v>5295</v>
-      </c>
-      <c r="G76">
-        <v>5295</v>
-      </c>
-      <c r="H76">
         <v>5295</v>
       </c>
     </row>

--- a/exported_dfs/110550 United States_combined.xlsx
+++ b/exported_dfs/110550 United States_combined.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ae3fc46a81f6f95/Desktop/Auto-Parameters-Tuning/exported_dfs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F5CF04385DB19205AEFF31D2F87AC3C15159A91E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F0551C-A8F0-405A-84F5-D05DE8009FC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -37,7 +31,28 @@
     <t>Act Orders Final Rev</t>
   </si>
   <si>
-    <t>Fcst Stat Prelim Rev_permutation_1</t>
+    <t>Fcst Stat Prelim Rev_FitValidationSensitivity_1</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_FitValidationSensitivity_1.7</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_ForecastValidationSensitivity_4.5</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_ForecastValidationSensitivity_5</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_OutlierSensitivity_1</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_OutlierSensitivity_3</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_OutliersPercent_5</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_EnableNonNegRegr_1</t>
   </si>
   <si>
     <t>End of History</t>
@@ -58,11 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +141,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,7 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -247,10 +253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,19 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,16 +460,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>44501</v>
@@ -478,15 +499,15 @@
         <v>8220</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>44531</v>
@@ -495,18 +516,36 @@
         <v>10836</v>
       </c>
       <c r="F3">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G3">
+        <v>4707</v>
+      </c>
+      <c r="H3">
+        <v>4707</v>
+      </c>
+      <c r="I3">
+        <v>4707</v>
+      </c>
+      <c r="K3">
+        <v>4707</v>
+      </c>
+      <c r="L3">
+        <v>5295</v>
+      </c>
+      <c r="M3">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>44562</v>
@@ -515,18 +554,36 @@
         <v>6425</v>
       </c>
       <c r="F4">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G4">
+        <v>4707</v>
+      </c>
+      <c r="H4">
+        <v>4707</v>
+      </c>
+      <c r="I4">
+        <v>4707</v>
+      </c>
+      <c r="K4">
+        <v>4707</v>
+      </c>
+      <c r="L4">
+        <v>5295</v>
+      </c>
+      <c r="M4">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>44593</v>
@@ -535,18 +592,36 @@
         <v>7720</v>
       </c>
       <c r="F5">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G5">
+        <v>4707</v>
+      </c>
+      <c r="H5">
+        <v>4707</v>
+      </c>
+      <c r="I5">
+        <v>4707</v>
+      </c>
+      <c r="K5">
+        <v>4707</v>
+      </c>
+      <c r="L5">
+        <v>5295</v>
+      </c>
+      <c r="M5">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>44621</v>
@@ -555,18 +630,36 @@
         <v>8466</v>
       </c>
       <c r="F6">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G6">
+        <v>4707</v>
+      </c>
+      <c r="H6">
+        <v>4707</v>
+      </c>
+      <c r="I6">
+        <v>4707</v>
+      </c>
+      <c r="K6">
+        <v>4707</v>
+      </c>
+      <c r="L6">
+        <v>5295</v>
+      </c>
+      <c r="M6">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>44652</v>
@@ -575,18 +668,36 @@
         <v>7605</v>
       </c>
       <c r="F7">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G7">
+        <v>4707</v>
+      </c>
+      <c r="H7">
+        <v>4707</v>
+      </c>
+      <c r="I7">
+        <v>4707</v>
+      </c>
+      <c r="K7">
+        <v>4707</v>
+      </c>
+      <c r="L7">
+        <v>5295</v>
+      </c>
+      <c r="M7">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>44682</v>
@@ -595,18 +706,36 @@
         <v>7452</v>
       </c>
       <c r="F8">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G8">
+        <v>4707</v>
+      </c>
+      <c r="H8">
+        <v>4707</v>
+      </c>
+      <c r="I8">
+        <v>4707</v>
+      </c>
+      <c r="K8">
+        <v>4707</v>
+      </c>
+      <c r="L8">
+        <v>5295</v>
+      </c>
+      <c r="M8">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>44713</v>
@@ -615,18 +744,36 @@
         <v>8374</v>
       </c>
       <c r="F9">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G9">
+        <v>4707</v>
+      </c>
+      <c r="H9">
+        <v>4707</v>
+      </c>
+      <c r="I9">
+        <v>4707</v>
+      </c>
+      <c r="K9">
+        <v>4707</v>
+      </c>
+      <c r="L9">
+        <v>5295</v>
+      </c>
+      <c r="M9">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>44743</v>
@@ -635,18 +782,36 @@
         <v>7783</v>
       </c>
       <c r="F10">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G10">
+        <v>4707</v>
+      </c>
+      <c r="H10">
+        <v>4707</v>
+      </c>
+      <c r="I10">
+        <v>4707</v>
+      </c>
+      <c r="K10">
+        <v>4707</v>
+      </c>
+      <c r="L10">
+        <v>5295</v>
+      </c>
+      <c r="M10">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>44774</v>
@@ -655,18 +820,36 @@
         <v>8494</v>
       </c>
       <c r="F11">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G11">
+        <v>4707</v>
+      </c>
+      <c r="H11">
+        <v>4707</v>
+      </c>
+      <c r="I11">
+        <v>4707</v>
+      </c>
+      <c r="K11">
+        <v>4707</v>
+      </c>
+      <c r="L11">
+        <v>5295</v>
+      </c>
+      <c r="M11">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>44805</v>
@@ -675,18 +858,36 @@
         <v>8460</v>
       </c>
       <c r="F12">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G12">
+        <v>4707</v>
+      </c>
+      <c r="H12">
+        <v>4707</v>
+      </c>
+      <c r="I12">
+        <v>4707</v>
+      </c>
+      <c r="K12">
+        <v>4707</v>
+      </c>
+      <c r="L12">
+        <v>5295</v>
+      </c>
+      <c r="M12">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>44835</v>
@@ -695,18 +896,36 @@
         <v>8991</v>
       </c>
       <c r="F13">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G13">
+        <v>4707</v>
+      </c>
+      <c r="H13">
+        <v>4707</v>
+      </c>
+      <c r="I13">
+        <v>4707</v>
+      </c>
+      <c r="K13">
+        <v>4707</v>
+      </c>
+      <c r="L13">
+        <v>5295</v>
+      </c>
+      <c r="M13">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>44866</v>
@@ -715,18 +934,36 @@
         <v>10319</v>
       </c>
       <c r="F14">
+        <v>5003</v>
+      </c>
+      <c r="G14">
+        <v>5003</v>
+      </c>
+      <c r="H14">
+        <v>5003</v>
+      </c>
+      <c r="I14">
+        <v>5003</v>
+      </c>
+      <c r="K14">
+        <v>5003</v>
+      </c>
+      <c r="L14">
         <v>5563</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>44896</v>
@@ -735,18 +972,36 @@
         <v>12694</v>
       </c>
       <c r="F15">
+        <v>6276</v>
+      </c>
+      <c r="G15">
+        <v>6276</v>
+      </c>
+      <c r="H15">
+        <v>6276</v>
+      </c>
+      <c r="I15">
+        <v>6276</v>
+      </c>
+      <c r="K15">
+        <v>6276</v>
+      </c>
+      <c r="L15">
         <v>5828</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
         <v>44927</v>
@@ -755,18 +1010,36 @@
         <v>8911</v>
       </c>
       <c r="F16">
+        <v>7514</v>
+      </c>
+      <c r="G16">
+        <v>7514</v>
+      </c>
+      <c r="H16">
+        <v>7514</v>
+      </c>
+      <c r="I16">
+        <v>7514</v>
+      </c>
+      <c r="K16">
+        <v>7514</v>
+      </c>
+      <c r="L16">
         <v>6090</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
         <v>44958</v>
@@ -775,18 +1048,36 @@
         <v>9040</v>
       </c>
       <c r="F17">
+        <v>7988</v>
+      </c>
+      <c r="G17">
+        <v>7988</v>
+      </c>
+      <c r="H17">
+        <v>7988</v>
+      </c>
+      <c r="I17">
+        <v>7988</v>
+      </c>
+      <c r="K17">
+        <v>7988</v>
+      </c>
+      <c r="L17">
         <v>6349</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
         <v>44986</v>
@@ -795,18 +1086,36 @@
         <v>9371</v>
       </c>
       <c r="F18">
+        <v>8041</v>
+      </c>
+      <c r="G18">
+        <v>8041</v>
+      </c>
+      <c r="H18">
+        <v>8041</v>
+      </c>
+      <c r="I18">
+        <v>8041</v>
+      </c>
+      <c r="K18">
+        <v>8041</v>
+      </c>
+      <c r="L18">
         <v>6605</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2">
         <v>45017</v>
@@ -815,18 +1124,36 @@
         <v>7791</v>
       </c>
       <c r="F19">
+        <v>7935</v>
+      </c>
+      <c r="G19">
+        <v>7935</v>
+      </c>
+      <c r="H19">
+        <v>7935</v>
+      </c>
+      <c r="I19">
+        <v>7935</v>
+      </c>
+      <c r="K19">
+        <v>7935</v>
+      </c>
+      <c r="L19">
         <v>6858</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
         <v>45047</v>
@@ -835,18 +1162,36 @@
         <v>9911</v>
       </c>
       <c r="F20">
+        <v>7743</v>
+      </c>
+      <c r="G20">
+        <v>7743</v>
+      </c>
+      <c r="H20">
+        <v>7743</v>
+      </c>
+      <c r="I20">
+        <v>7743</v>
+      </c>
+      <c r="K20">
+        <v>7743</v>
+      </c>
+      <c r="L20">
         <v>7108</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>45078</v>
@@ -855,18 +1200,36 @@
         <v>10348</v>
       </c>
       <c r="F21">
+        <v>7783</v>
+      </c>
+      <c r="G21">
+        <v>7783</v>
+      </c>
+      <c r="H21">
+        <v>7783</v>
+      </c>
+      <c r="I21">
+        <v>7783</v>
+      </c>
+      <c r="K21">
+        <v>7783</v>
+      </c>
+      <c r="L21">
         <v>7355</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>45108</v>
@@ -875,18 +1238,36 @@
         <v>8473</v>
       </c>
       <c r="F22">
+        <v>7953</v>
+      </c>
+      <c r="G22">
+        <v>7953</v>
+      </c>
+      <c r="H22">
+        <v>7953</v>
+      </c>
+      <c r="I22">
+        <v>7953</v>
+      </c>
+      <c r="K22">
+        <v>7953</v>
+      </c>
+      <c r="L22">
         <v>7598</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>7598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
         <v>45139</v>
@@ -895,18 +1276,36 @@
         <v>10210</v>
       </c>
       <c r="F23">
+        <v>8077</v>
+      </c>
+      <c r="G23">
+        <v>8077</v>
+      </c>
+      <c r="H23">
+        <v>8077</v>
+      </c>
+      <c r="I23">
+        <v>8077</v>
+      </c>
+      <c r="K23">
+        <v>8077</v>
+      </c>
+      <c r="L23">
         <v>7839</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>45170</v>
@@ -915,18 +1314,36 @@
         <v>9366</v>
       </c>
       <c r="F24">
+        <v>8336</v>
+      </c>
+      <c r="G24">
+        <v>8336</v>
+      </c>
+      <c r="H24">
+        <v>8336</v>
+      </c>
+      <c r="I24">
+        <v>8336</v>
+      </c>
+      <c r="K24">
+        <v>8336</v>
+      </c>
+      <c r="L24">
         <v>8077</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2">
         <v>45200</v>
@@ -935,18 +1352,36 @@
         <v>12692</v>
       </c>
       <c r="F25">
+        <v>8554</v>
+      </c>
+      <c r="G25">
+        <v>8554</v>
+      </c>
+      <c r="H25">
+        <v>8554</v>
+      </c>
+      <c r="I25">
+        <v>8554</v>
+      </c>
+      <c r="K25">
+        <v>8554</v>
+      </c>
+      <c r="L25">
         <v>8311</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2">
         <v>45231</v>
@@ -955,18 +1390,36 @@
         <v>11498</v>
       </c>
       <c r="F26">
+        <v>8944</v>
+      </c>
+      <c r="G26">
+        <v>8944</v>
+      </c>
+      <c r="H26">
+        <v>8944</v>
+      </c>
+      <c r="I26">
+        <v>8944</v>
+      </c>
+      <c r="K26">
+        <v>8944</v>
+      </c>
+      <c r="L26">
         <v>8543</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2">
         <v>45261</v>
@@ -975,18 +1428,36 @@
         <v>14473</v>
       </c>
       <c r="F27">
+        <v>9220</v>
+      </c>
+      <c r="G27">
+        <v>9220</v>
+      </c>
+      <c r="H27">
+        <v>9220</v>
+      </c>
+      <c r="I27">
+        <v>9220</v>
+      </c>
+      <c r="K27">
+        <v>9220</v>
+      </c>
+      <c r="L27">
         <v>8771</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2">
         <v>45292</v>
@@ -995,18 +1466,36 @@
         <v>8725</v>
       </c>
       <c r="F28">
+        <v>9607</v>
+      </c>
+      <c r="G28">
+        <v>9607</v>
+      </c>
+      <c r="H28">
+        <v>9607</v>
+      </c>
+      <c r="I28">
+        <v>9607</v>
+      </c>
+      <c r="K28">
+        <v>9607</v>
+      </c>
+      <c r="L28">
         <v>8997</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>8997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2">
         <v>45323</v>
@@ -1015,18 +1504,36 @@
         <v>9040</v>
       </c>
       <c r="F29">
+        <v>9618</v>
+      </c>
+      <c r="G29">
+        <v>9618</v>
+      </c>
+      <c r="H29">
+        <v>9618</v>
+      </c>
+      <c r="I29">
+        <v>9618</v>
+      </c>
+      <c r="K29">
+        <v>9618</v>
+      </c>
+      <c r="L29">
         <v>9219</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>9219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
         <v>45352</v>
@@ -1035,18 +1542,36 @@
         <v>8916</v>
       </c>
       <c r="F30">
+        <v>9655</v>
+      </c>
+      <c r="G30">
+        <v>9655</v>
+      </c>
+      <c r="H30">
+        <v>9655</v>
+      </c>
+      <c r="I30">
+        <v>9655</v>
+      </c>
+      <c r="K30">
+        <v>9655</v>
+      </c>
+      <c r="L30">
         <v>9439</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
         <v>45383</v>
@@ -1055,18 +1580,36 @@
         <v>9534</v>
       </c>
       <c r="F31">
+        <v>9731</v>
+      </c>
+      <c r="G31">
+        <v>9731</v>
+      </c>
+      <c r="H31">
+        <v>9731</v>
+      </c>
+      <c r="I31">
+        <v>9731</v>
+      </c>
+      <c r="K31">
+        <v>9731</v>
+      </c>
+      <c r="L31">
         <v>9655</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
         <v>45413</v>
@@ -1075,18 +1618,36 @@
         <v>9180</v>
       </c>
       <c r="F32">
+        <v>9887</v>
+      </c>
+      <c r="G32">
+        <v>9887</v>
+      </c>
+      <c r="H32">
+        <v>9887</v>
+      </c>
+      <c r="I32">
+        <v>9887</v>
+      </c>
+      <c r="K32">
+        <v>9887</v>
+      </c>
+      <c r="L32">
         <v>9869</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>9869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2">
         <v>45444</v>
@@ -1095,18 +1656,36 @@
         <v>9476</v>
       </c>
       <c r="F33">
+        <v>10051</v>
+      </c>
+      <c r="G33">
+        <v>10051</v>
+      </c>
+      <c r="H33">
+        <v>10051</v>
+      </c>
+      <c r="I33">
+        <v>10051</v>
+      </c>
+      <c r="K33">
+        <v>10051</v>
+      </c>
+      <c r="L33">
         <v>10079</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>10079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
         <v>45474</v>
@@ -1115,21 +1694,39 @@
         <v>8941</v>
       </c>
       <c r="F34">
+        <v>10245</v>
+      </c>
+      <c r="G34">
+        <v>10245</v>
+      </c>
+      <c r="H34">
+        <v>10245</v>
+      </c>
+      <c r="I34">
+        <v>10245</v>
+      </c>
+      <c r="K34">
+        <v>10245</v>
+      </c>
+      <c r="L34">
         <v>10286</v>
       </c>
-      <c r="H34">
+      <c r="M34">
+        <v>10286</v>
+      </c>
+      <c r="O34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2">
         <v>45505</v>
@@ -1138,18 +1735,36 @@
         <v>8188</v>
       </c>
       <c r="F35">
+        <v>10411</v>
+      </c>
+      <c r="G35">
+        <v>10411</v>
+      </c>
+      <c r="H35">
+        <v>10411</v>
+      </c>
+      <c r="I35">
+        <v>10411</v>
+      </c>
+      <c r="K35">
+        <v>10411</v>
+      </c>
+      <c r="L35">
         <v>10491</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>10491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2">
         <v>45536</v>
@@ -1158,21 +1773,39 @@
         <v>8557</v>
       </c>
       <c r="F36">
+        <v>10539</v>
+      </c>
+      <c r="G36">
+        <v>10539</v>
+      </c>
+      <c r="H36">
+        <v>10539</v>
+      </c>
+      <c r="I36">
+        <v>10539</v>
+      </c>
+      <c r="K36">
+        <v>10539</v>
+      </c>
+      <c r="L36">
         <v>10693</v>
       </c>
-      <c r="H36">
+      <c r="M36">
+        <v>10693</v>
+      </c>
+      <c r="O36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2">
         <v>45566</v>
@@ -1181,18 +1814,36 @@
         <v>9969</v>
       </c>
       <c r="F37">
+        <v>10698</v>
+      </c>
+      <c r="G37">
+        <v>10698</v>
+      </c>
+      <c r="H37">
+        <v>10698</v>
+      </c>
+      <c r="I37">
+        <v>10698</v>
+      </c>
+      <c r="K37">
+        <v>10698</v>
+      </c>
+      <c r="L37">
         <v>10891</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2">
         <v>45597</v>
@@ -1201,655 +1852,1727 @@
         <v>5295</v>
       </c>
       <c r="F38">
+        <v>10938</v>
+      </c>
+      <c r="G38">
+        <v>10938</v>
+      </c>
+      <c r="H38">
+        <v>10938</v>
+      </c>
+      <c r="I38">
+        <v>10938</v>
+      </c>
+      <c r="K38">
+        <v>10938</v>
+      </c>
+      <c r="L38">
         <v>11087</v>
       </c>
-      <c r="G38">
+      <c r="M38">
+        <v>11087</v>
+      </c>
+      <c r="N38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2">
         <v>45627</v>
       </c>
       <c r="F39">
+        <v>11152</v>
+      </c>
+      <c r="G39">
+        <v>11152</v>
+      </c>
+      <c r="H39">
+        <v>11152</v>
+      </c>
+      <c r="I39">
+        <v>11152</v>
+      </c>
+      <c r="K39">
+        <v>11152</v>
+      </c>
+      <c r="L39">
         <v>11280</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2">
         <v>45658</v>
       </c>
       <c r="F40">
+        <v>11362</v>
+      </c>
+      <c r="G40">
+        <v>11362</v>
+      </c>
+      <c r="H40">
+        <v>11362</v>
+      </c>
+      <c r="I40">
+        <v>11362</v>
+      </c>
+      <c r="K40">
+        <v>11362</v>
+      </c>
+      <c r="L40">
         <v>11470</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2">
         <v>45689</v>
       </c>
       <c r="F41">
+        <v>11570</v>
+      </c>
+      <c r="G41">
+        <v>11570</v>
+      </c>
+      <c r="H41">
+        <v>11570</v>
+      </c>
+      <c r="I41">
+        <v>11570</v>
+      </c>
+      <c r="K41">
+        <v>11570</v>
+      </c>
+      <c r="L41">
         <v>11657</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>11657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2">
         <v>45717</v>
       </c>
       <c r="F42">
+        <v>11776</v>
+      </c>
+      <c r="G42">
+        <v>11776</v>
+      </c>
+      <c r="H42">
+        <v>11776</v>
+      </c>
+      <c r="I42">
+        <v>11776</v>
+      </c>
+      <c r="K42">
+        <v>11776</v>
+      </c>
+      <c r="L42">
         <v>11841</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>11841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2">
         <v>45748</v>
       </c>
       <c r="F43">
+        <v>11980</v>
+      </c>
+      <c r="G43">
+        <v>11980</v>
+      </c>
+      <c r="H43">
+        <v>11980</v>
+      </c>
+      <c r="I43">
+        <v>11980</v>
+      </c>
+      <c r="K43">
+        <v>11980</v>
+      </c>
+      <c r="L43">
         <v>12023</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2">
         <v>45778</v>
       </c>
       <c r="F44">
+        <v>12182</v>
+      </c>
+      <c r="G44">
+        <v>12182</v>
+      </c>
+      <c r="H44">
+        <v>12182</v>
+      </c>
+      <c r="I44">
+        <v>12182</v>
+      </c>
+      <c r="K44">
+        <v>12182</v>
+      </c>
+      <c r="L44">
         <v>12201</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>12201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2">
         <v>45809</v>
       </c>
       <c r="F45">
+        <v>12381</v>
+      </c>
+      <c r="G45">
+        <v>12381</v>
+      </c>
+      <c r="H45">
+        <v>12381</v>
+      </c>
+      <c r="I45">
+        <v>12381</v>
+      </c>
+      <c r="K45">
+        <v>12381</v>
+      </c>
+      <c r="L45">
         <v>12377</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>12377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2">
         <v>45839</v>
       </c>
       <c r="F46">
+        <v>12578</v>
+      </c>
+      <c r="G46">
+        <v>12578</v>
+      </c>
+      <c r="H46">
+        <v>12578</v>
+      </c>
+      <c r="I46">
+        <v>12578</v>
+      </c>
+      <c r="K46">
+        <v>12578</v>
+      </c>
+      <c r="L46">
         <v>12551</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>12551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2">
         <v>45870</v>
       </c>
       <c r="F47">
+        <v>12773</v>
+      </c>
+      <c r="G47">
+        <v>12773</v>
+      </c>
+      <c r="H47">
+        <v>12773</v>
+      </c>
+      <c r="I47">
+        <v>12773</v>
+      </c>
+      <c r="K47">
+        <v>12773</v>
+      </c>
+      <c r="L47">
         <v>12721</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>12721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2">
         <v>45901</v>
       </c>
       <c r="F48">
+        <v>12965</v>
+      </c>
+      <c r="G48">
+        <v>12965</v>
+      </c>
+      <c r="H48">
+        <v>12965</v>
+      </c>
+      <c r="I48">
+        <v>12965</v>
+      </c>
+      <c r="K48">
+        <v>12965</v>
+      </c>
+      <c r="L48">
         <v>12889</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>12889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2">
         <v>45931</v>
       </c>
       <c r="F49">
+        <v>13155</v>
+      </c>
+      <c r="G49">
+        <v>13155</v>
+      </c>
+      <c r="H49">
+        <v>13155</v>
+      </c>
+      <c r="I49">
+        <v>13155</v>
+      </c>
+      <c r="K49">
+        <v>13155</v>
+      </c>
+      <c r="L49">
         <v>13054</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>13054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2">
         <v>45962</v>
       </c>
       <c r="F50">
+        <v>13343</v>
+      </c>
+      <c r="G50">
+        <v>13343</v>
+      </c>
+      <c r="H50">
+        <v>13343</v>
+      </c>
+      <c r="I50">
+        <v>13343</v>
+      </c>
+      <c r="K50">
+        <v>13343</v>
+      </c>
+      <c r="L50">
         <v>13217</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>13217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2">
         <v>45992</v>
       </c>
       <c r="F51">
+        <v>13528</v>
+      </c>
+      <c r="G51">
+        <v>13528</v>
+      </c>
+      <c r="H51">
+        <v>13528</v>
+      </c>
+      <c r="I51">
+        <v>13528</v>
+      </c>
+      <c r="K51">
+        <v>13528</v>
+      </c>
+      <c r="L51">
         <v>13377</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>13377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2">
         <v>46023</v>
       </c>
       <c r="F52">
+        <v>13711</v>
+      </c>
+      <c r="G52">
+        <v>13711</v>
+      </c>
+      <c r="H52">
+        <v>13711</v>
+      </c>
+      <c r="I52">
+        <v>13711</v>
+      </c>
+      <c r="K52">
+        <v>13711</v>
+      </c>
+      <c r="L52">
         <v>13534</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>13534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2">
         <v>46054</v>
       </c>
       <c r="F53">
+        <v>13891</v>
+      </c>
+      <c r="G53">
+        <v>13891</v>
+      </c>
+      <c r="H53">
+        <v>13891</v>
+      </c>
+      <c r="I53">
+        <v>13891</v>
+      </c>
+      <c r="K53">
+        <v>13891</v>
+      </c>
+      <c r="L53">
         <v>13689</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2">
         <v>46082</v>
       </c>
       <c r="F54">
+        <v>14070</v>
+      </c>
+      <c r="G54">
+        <v>14070</v>
+      </c>
+      <c r="H54">
+        <v>14070</v>
+      </c>
+      <c r="I54">
+        <v>14070</v>
+      </c>
+      <c r="K54">
+        <v>14070</v>
+      </c>
+      <c r="L54">
         <v>13841</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>13841</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2">
         <v>46113</v>
       </c>
       <c r="F55">
+        <v>14246</v>
+      </c>
+      <c r="G55">
+        <v>14246</v>
+      </c>
+      <c r="H55">
+        <v>14246</v>
+      </c>
+      <c r="I55">
+        <v>14246</v>
+      </c>
+      <c r="K55">
+        <v>14246</v>
+      </c>
+      <c r="L55">
         <v>13990</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2">
         <v>46143</v>
       </c>
       <c r="F56">
+        <v>14420</v>
+      </c>
+      <c r="G56">
+        <v>14420</v>
+      </c>
+      <c r="H56">
+        <v>14420</v>
+      </c>
+      <c r="I56">
+        <v>14420</v>
+      </c>
+      <c r="K56">
+        <v>14420</v>
+      </c>
+      <c r="L56">
         <v>14138</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>14138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2">
         <v>46174</v>
       </c>
       <c r="F57">
+        <v>14591</v>
+      </c>
+      <c r="G57">
+        <v>14591</v>
+      </c>
+      <c r="H57">
+        <v>14591</v>
+      </c>
+      <c r="I57">
+        <v>14591</v>
+      </c>
+      <c r="K57">
+        <v>14591</v>
+      </c>
+      <c r="L57">
         <v>14282</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>14282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2">
         <v>46204</v>
       </c>
       <c r="F58">
+        <v>14761</v>
+      </c>
+      <c r="G58">
+        <v>14761</v>
+      </c>
+      <c r="H58">
+        <v>14761</v>
+      </c>
+      <c r="I58">
+        <v>14761</v>
+      </c>
+      <c r="K58">
+        <v>14761</v>
+      </c>
+      <c r="L58">
         <v>14425</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>14425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2">
         <v>46235</v>
       </c>
       <c r="F59">
+        <v>14928</v>
+      </c>
+      <c r="G59">
+        <v>14928</v>
+      </c>
+      <c r="H59">
+        <v>14928</v>
+      </c>
+      <c r="I59">
+        <v>14928</v>
+      </c>
+      <c r="K59">
+        <v>14928</v>
+      </c>
+      <c r="L59">
         <v>14565</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>14565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2">
         <v>46266</v>
       </c>
       <c r="F60">
+        <v>15094</v>
+      </c>
+      <c r="G60">
+        <v>15094</v>
+      </c>
+      <c r="H60">
+        <v>15094</v>
+      </c>
+      <c r="I60">
+        <v>15094</v>
+      </c>
+      <c r="K60">
+        <v>15094</v>
+      </c>
+      <c r="L60">
         <v>14702</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>14702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2">
         <v>46296</v>
       </c>
       <c r="F61">
+        <v>15257</v>
+      </c>
+      <c r="G61">
+        <v>15257</v>
+      </c>
+      <c r="H61">
+        <v>15257</v>
+      </c>
+      <c r="I61">
+        <v>15257</v>
+      </c>
+      <c r="K61">
+        <v>15257</v>
+      </c>
+      <c r="L61">
         <v>14837</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>14837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2">
         <v>46327</v>
       </c>
       <c r="F62">
+        <v>15418</v>
+      </c>
+      <c r="G62">
+        <v>15418</v>
+      </c>
+      <c r="H62">
+        <v>15418</v>
+      </c>
+      <c r="I62">
+        <v>15418</v>
+      </c>
+      <c r="K62">
+        <v>15418</v>
+      </c>
+      <c r="L62">
         <v>14970</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>14970</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2">
         <v>46357</v>
       </c>
       <c r="F63">
+        <v>15577</v>
+      </c>
+      <c r="G63">
+        <v>15577</v>
+      </c>
+      <c r="H63">
+        <v>15577</v>
+      </c>
+      <c r="I63">
+        <v>15577</v>
+      </c>
+      <c r="K63">
+        <v>15577</v>
+      </c>
+      <c r="L63">
         <v>15101</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>15101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2">
         <v>46388</v>
       </c>
       <c r="F64">
+        <v>15734</v>
+      </c>
+      <c r="G64">
+        <v>15734</v>
+      </c>
+      <c r="H64">
+        <v>15734</v>
+      </c>
+      <c r="I64">
+        <v>15734</v>
+      </c>
+      <c r="K64">
+        <v>15734</v>
+      </c>
+      <c r="L64">
         <v>15229</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>15229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2">
         <v>46419</v>
       </c>
       <c r="F65">
+        <v>15889</v>
+      </c>
+      <c r="G65">
+        <v>15889</v>
+      </c>
+      <c r="H65">
+        <v>15889</v>
+      </c>
+      <c r="I65">
+        <v>15889</v>
+      </c>
+      <c r="K65">
+        <v>15889</v>
+      </c>
+      <c r="L65">
         <v>15355</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>15355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2">
         <v>46447</v>
       </c>
       <c r="F66">
+        <v>16043</v>
+      </c>
+      <c r="G66">
+        <v>16043</v>
+      </c>
+      <c r="H66">
+        <v>16043</v>
+      </c>
+      <c r="I66">
+        <v>16043</v>
+      </c>
+      <c r="K66">
+        <v>16043</v>
+      </c>
+      <c r="L66">
         <v>15479</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>15479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2">
         <v>46478</v>
       </c>
       <c r="F67">
+        <v>16194</v>
+      </c>
+      <c r="G67">
+        <v>16194</v>
+      </c>
+      <c r="H67">
+        <v>16194</v>
+      </c>
+      <c r="I67">
+        <v>16194</v>
+      </c>
+      <c r="K67">
+        <v>16194</v>
+      </c>
+      <c r="L67">
         <v>15601</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2">
         <v>46508</v>
       </c>
       <c r="F68">
+        <v>16343</v>
+      </c>
+      <c r="G68">
+        <v>16343</v>
+      </c>
+      <c r="H68">
+        <v>16343</v>
+      </c>
+      <c r="I68">
+        <v>16343</v>
+      </c>
+      <c r="K68">
+        <v>16343</v>
+      </c>
+      <c r="L68">
         <v>15720</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2">
         <v>46539</v>
       </c>
       <c r="F69">
+        <v>16491</v>
+      </c>
+      <c r="G69">
+        <v>16491</v>
+      </c>
+      <c r="H69">
+        <v>16491</v>
+      </c>
+      <c r="I69">
+        <v>16491</v>
+      </c>
+      <c r="K69">
+        <v>16491</v>
+      </c>
+      <c r="L69">
         <v>15838</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>15838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2">
         <v>46569</v>
       </c>
       <c r="F70">
+        <v>16636</v>
+      </c>
+      <c r="G70">
+        <v>16636</v>
+      </c>
+      <c r="H70">
+        <v>16636</v>
+      </c>
+      <c r="I70">
+        <v>16636</v>
+      </c>
+      <c r="K70">
+        <v>16636</v>
+      </c>
+      <c r="L70">
         <v>15953</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>15953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2">
         <v>46600</v>
       </c>
       <c r="F71">
+        <v>16780</v>
+      </c>
+      <c r="G71">
+        <v>16780</v>
+      </c>
+      <c r="H71">
+        <v>16780</v>
+      </c>
+      <c r="I71">
+        <v>16780</v>
+      </c>
+      <c r="K71">
+        <v>16780</v>
+      </c>
+      <c r="L71">
         <v>16067</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>16067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2">
         <v>46631</v>
       </c>
       <c r="F72">
+        <v>16922</v>
+      </c>
+      <c r="G72">
+        <v>16922</v>
+      </c>
+      <c r="H72">
+        <v>16922</v>
+      </c>
+      <c r="I72">
+        <v>16922</v>
+      </c>
+      <c r="K72">
+        <v>16922</v>
+      </c>
+      <c r="L72">
         <v>16178</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>16178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2">
         <v>46661</v>
       </c>
       <c r="F73">
+        <v>17062</v>
+      </c>
+      <c r="G73">
+        <v>17062</v>
+      </c>
+      <c r="H73">
+        <v>17062</v>
+      </c>
+      <c r="I73">
+        <v>17062</v>
+      </c>
+      <c r="K73">
+        <v>17062</v>
+      </c>
+      <c r="L73">
         <v>16287</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>16287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2">
         <v>46692</v>
       </c>
       <c r="F74">
+        <v>17201</v>
+      </c>
+      <c r="G74">
+        <v>17201</v>
+      </c>
+      <c r="H74">
+        <v>17201</v>
+      </c>
+      <c r="I74">
+        <v>17201</v>
+      </c>
+      <c r="K74">
+        <v>17201</v>
+      </c>
+      <c r="L74">
         <v>16394</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>16394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2">
         <v>46722</v>
       </c>
       <c r="F75">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+      <c r="G75">
+        <v>4707</v>
+      </c>
+      <c r="H75">
+        <v>4707</v>
+      </c>
+      <c r="I75">
+        <v>4707</v>
+      </c>
+      <c r="K75">
+        <v>4707</v>
+      </c>
+      <c r="L75">
+        <v>5295</v>
+      </c>
+      <c r="M75">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2">
         <v>46753</v>
       </c>
       <c r="F76">
+        <v>4707</v>
+      </c>
+      <c r="G76">
+        <v>4707</v>
+      </c>
+      <c r="H76">
+        <v>4707</v>
+      </c>
+      <c r="I76">
+        <v>4707</v>
+      </c>
+      <c r="K76">
+        <v>4707</v>
+      </c>
+      <c r="L76">
+        <v>5295</v>
+      </c>
+      <c r="M76">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="J78">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="J79">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="J80">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10">
+      <c r="J88">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10">
+      <c r="J89">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10">
+      <c r="J90">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10">
+      <c r="J91">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10">
+      <c r="J92">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10">
+      <c r="J93">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10">
+      <c r="J94">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10">
+      <c r="J95">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10">
+      <c r="J96">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97">
+        <v>7598</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103">
+        <v>8997</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104">
+        <v>9219</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106">
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107">
+        <v>9869</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108">
+        <v>10079</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109">
+        <v>10286</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110">
+        <v>10491</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111">
+        <v>10693</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113">
+        <v>11087</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115">
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116">
+        <v>11657</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117">
+        <v>11841</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119">
+        <v>12201</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120">
+        <v>12377</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121">
+        <v>12551</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122">
+        <v>12721</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123">
+        <v>12889</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124">
+        <v>13054</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125">
+        <v>13217</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126">
+        <v>13377</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127">
+        <v>13534</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129">
+        <v>13841</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131">
+        <v>14138</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132">
+        <v>14282</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133">
+        <v>14425</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134">
+        <v>14565</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135">
+        <v>14702</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136">
+        <v>14837</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137">
+        <v>14970</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138">
+        <v>15101</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139">
+        <v>15229</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140">
+        <v>15355</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141">
+        <v>15479</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142">
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143">
+        <v>15720</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144">
+        <v>15838</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145">
+        <v>15953</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146">
+        <v>16067</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147">
+        <v>16178</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148">
+        <v>16287</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149">
+        <v>16394</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151">
         <v>5295</v>
       </c>
     </row>
